--- a/Exp8/Exp8.xlsx
+++ b/Exp8/Exp8.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbn/Desktop/PhyExp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbn/Library/Containers/com.microsoft.Excel/Data/Desktop/PhyExp/Exp8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0A3EA6E4-07D2-F845-B849-F39508F692B3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B83F878C-5A90-4741-91E3-81ACE54A4430}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="1200" windowWidth="28040" windowHeight="17440" xr2:uid="{9F86518B-9D78-6F46-8A8C-033E8FB6EEFA}"/>
+    <workbookView xWindow="5560" yWindow="1200" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{9F86518B-9D78-6F46-8A8C-033E8FB6EEFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2.1" sheetId="2" r:id="rId2"/>
+    <sheet name="2.2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t>S(cm)</t>
   </si>
@@ -49,6 +52,42 @@
   </si>
   <si>
     <t>2s</t>
+  </si>
+  <si>
+    <t>m1(g)</t>
+  </si>
+  <si>
+    <t>m2(g)</t>
+  </si>
+  <si>
+    <t>Exp1</t>
+  </si>
+  <si>
+    <t>P1.1</t>
+  </si>
+  <si>
+    <t>P2.1</t>
+  </si>
+  <si>
+    <t>P2.2</t>
+  </si>
+  <si>
+    <t>DeltaP/P</t>
+  </si>
+  <si>
+    <t>v10</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>DeltaE/E</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -84,11 +123,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADDBDFA-27FC-EA45-BB00-BAD136A435D9}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,7 +517,7 @@
         <v>0.30382723968355779</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F7" si="0">(E3)^2</f>
+        <f t="shared" ref="F3:F6" si="0">(E3)^2</f>
         <v>9.2310991573730072E-2</v>
       </c>
       <c r="G3">
@@ -614,5 +654,680 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E629FFDA-9E1B-0649-9482-C01FF1450419}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>172.4</v>
+      </c>
+      <c r="C1">
+        <v>172.33</v>
+      </c>
+      <c r="D1">
+        <v>172.3</v>
+      </c>
+      <c r="E1">
+        <f>AVERAGE(B1:D1)</f>
+        <v>172.34333333333333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>333.14</v>
+      </c>
+      <c r="C2">
+        <v>333.18</v>
+      </c>
+      <c r="D2">
+        <v>333.17</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(B2:D2)</f>
+        <v>333.16333333333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.94</v>
+      </c>
+      <c r="C3">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D3">
+        <v>0.95</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(B3:D3)</f>
+        <v>0.94733333333333325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="C5">
+        <v>21.11</v>
+      </c>
+      <c r="D5">
+        <v>17.350000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>12.62</v>
+      </c>
+      <c r="C6">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="D6">
+        <v>13.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>52.71</v>
+      </c>
+      <c r="C7">
+        <v>66.83</v>
+      </c>
+      <c r="D7">
+        <v>55.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <f>E3/B5*10</f>
+        <v>0.57379366040783353</v>
+      </c>
+      <c r="C8" s="2">
+        <f>E3/C5*10</f>
+        <v>0.44876046107689871</v>
+      </c>
+      <c r="D8" s="2">
+        <f>E3/D5*10</f>
+        <v>0.54601344860710843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <f>E3/B7*10</f>
+        <v>0.17972554227534304</v>
+      </c>
+      <c r="C9">
+        <f>E3/C7*10</f>
+        <v>0.14175270587061697</v>
+      </c>
+      <c r="D9">
+        <f>E3/D7*10</f>
+        <v>0.17016945093108193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <f>E3/B6*10</f>
+        <v>0.75066032752245115</v>
+      </c>
+      <c r="C10">
+        <f>E3/C6*10</f>
+        <v>0.58658410732714139</v>
+      </c>
+      <c r="D10">
+        <f>E3/D6*10</f>
+        <v>0.71389098216528502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <f>(E2*B8-(E2*B9+E1*B10))/(E2*B8)</f>
+        <v>1.003177674683222E-2</v>
+      </c>
+      <c r="C11">
+        <f>(E2*C8-(E2*C9+E1*C10))/(E2*C8)</f>
+        <v>7.9584142868854742E-3</v>
+      </c>
+      <c r="D11">
+        <f>(E2*D8-(E2*D9+E1*D10))/(E2*D8)</f>
+        <v>1.2000811652779064E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <f>(0.5*E2*(B8^2)-0.5*(E2*B9^2+E1*B10^2))/(0.5*E2*B8^2)</f>
+        <v>1.6545783492993439E-2</v>
+      </c>
+      <c r="C12">
+        <f>(0.5*E2*(C8^2)-0.5*(E2*C9^2+E1*C10^2))/(0.5*E2*C8^2)</f>
+        <v>1.6392359744547606E-2</v>
+      </c>
+      <c r="D12">
+        <f>(0.5*E2*(D8^2)-0.5*(E2*D9^2+E1*D10^2))/(0.5*E2*D8^2)</f>
+        <v>1.8579934738181612E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <f>(B10-B9)/B8</f>
+        <v>0.99501759019314806</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:D13" si="0">(C10-C9)/C8</f>
+        <v>0.99124463948774444</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.99580245252428845</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D1D938-5A1D-6945-8A26-16589710A35A}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>172.4</v>
+      </c>
+      <c r="C1">
+        <v>172.33</v>
+      </c>
+      <c r="D1">
+        <v>172.3</v>
+      </c>
+      <c r="E1">
+        <f>AVERAGE(B1:D1)</f>
+        <v>172.34333333333333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>333.14</v>
+      </c>
+      <c r="C2">
+        <v>333.18</v>
+      </c>
+      <c r="D2">
+        <v>333.17</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(B2:D2)</f>
+        <v>333.16333333333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.94</v>
+      </c>
+      <c r="C3">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D3">
+        <v>0.95</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(B3:D3)</f>
+        <v>0.94733333333333325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>14.41</v>
+      </c>
+      <c r="C5">
+        <v>18.2</v>
+      </c>
+      <c r="D5">
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>22.3</v>
+      </c>
+      <c r="C6">
+        <v>28.18</v>
+      </c>
+      <c r="D6">
+        <v>20.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>22.36</v>
+      </c>
+      <c r="C7">
+        <v>28.3</v>
+      </c>
+      <c r="D7">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <f>E3/B5*10</f>
+        <v>0.65741383298635203</v>
+      </c>
+      <c r="C8" s="2">
+        <f>E3/C5*10</f>
+        <v>0.52051282051282044</v>
+      </c>
+      <c r="D8" s="2">
+        <f>E3/D5*10</f>
+        <v>0.71985815602836878</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <f>E3/B7*10</f>
+        <v>0.42367322599880736</v>
+      </c>
+      <c r="C9">
+        <f>E3/C7*10</f>
+        <v>0.33474676089517075</v>
+      </c>
+      <c r="D9">
+        <f>E3/D7*10</f>
+        <v>0.45987055016181222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <f>E3/B6*10</f>
+        <v>0.424813153961136</v>
+      </c>
+      <c r="C10">
+        <f>E3/C6*10</f>
+        <v>0.33617222616512893</v>
+      </c>
+      <c r="D10">
+        <f>E3/D6*10</f>
+        <v>0.46143854521837951</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <f>(E2*B8-(E2*B9+E1*B10))/(E2*B8)</f>
+        <v>2.1276382016060372E-2</v>
+      </c>
+      <c r="C11">
+        <f>(E2*C8-(E2*C9+E1*C10))/(E2*C8)</f>
+        <v>2.2797218723935253E-2</v>
+      </c>
+      <c r="D11">
+        <f>(E2*D8-(E2*D9+E1*D10))/(E2*D8)</f>
+        <v>2.9572906838804262E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <f>(0.5*E2*(B8^2)-0.5*(E2*B9^2+E1*B10^2))/(0.5*E2*B8^2)</f>
+        <v>0.36867766600646118</v>
+      </c>
+      <c r="C12">
+        <f>(0.5*E2*(C8^2)-0.5*(E2*C9^2+E1*C10^2))/(0.5*E2*C8^2)</f>
+        <v>0.37063662762691524</v>
+      </c>
+      <c r="D12">
+        <f>(0.5*E2*(D8^2)-0.5*(E2*D9^2+E1*D10^2))/(0.5*E2*D8^2)</f>
+        <v>0.37933498103569502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <f>(B10-B9)/B8</f>
+        <v>1.7339579806990634E-3</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:D13" si="0">(C10-C9)/C8</f>
+        <v>2.7385785974566052E-3</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>2.1782000293200849E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B294934-3810-164F-BD07-37F37D3A35B3}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>172.4</v>
+      </c>
+      <c r="C1">
+        <v>172.33</v>
+      </c>
+      <c r="D1">
+        <v>172.3</v>
+      </c>
+      <c r="E1">
+        <f>AVERAGE(B1:D1)</f>
+        <v>172.34333333333333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>333.14</v>
+      </c>
+      <c r="C2">
+        <v>333.18</v>
+      </c>
+      <c r="D2">
+        <v>333.17</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(B2:D2)</f>
+        <v>333.16333333333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.94</v>
+      </c>
+      <c r="C3">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D3">
+        <v>0.95</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(B3:D3)</f>
+        <v>0.94733333333333325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>17.68</v>
+      </c>
+      <c r="C5">
+        <v>15.19</v>
+      </c>
+      <c r="D5">
+        <v>14.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>22.48</v>
+      </c>
+      <c r="C6">
+        <v>15.82</v>
+      </c>
+      <c r="D6">
+        <v>15.38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>32.130000000000003</v>
+      </c>
+      <c r="C7">
+        <v>34.770000000000003</v>
+      </c>
+      <c r="D7">
+        <v>32.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <f>E3/B5*10</f>
+        <v>0.53582202111613875</v>
+      </c>
+      <c r="C8" s="2">
+        <f>E3/C5*10</f>
+        <v>0.62365591397849462</v>
+      </c>
+      <c r="D8" s="2">
+        <f>E3/D5*10</f>
+        <v>0.63622117752406537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <f>E3/B7*10</f>
+        <v>0.29484386347131442</v>
+      </c>
+      <c r="C9">
+        <f>E3/C7*10</f>
+        <v>0.27245709903173226</v>
+      </c>
+      <c r="D9">
+        <f>E3/D7*10</f>
+        <v>0.28838153221714857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <f>E3/B6*10</f>
+        <v>0.4214116251482799</v>
+      </c>
+      <c r="C10">
+        <f>E3/C6*10</f>
+        <v>0.59882005899705004</v>
+      </c>
+      <c r="D10">
+        <f>E3/D6*10</f>
+        <v>0.61595145210229729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <f>(E2*B8-(E2*B9+E1*B10))/(E2*B8)</f>
+        <v>4.2895826296178899E-2</v>
+      </c>
+      <c r="C11">
+        <f>(E2*C8-(E2*C9+E1*C10))/(E2*C8)</f>
+        <v>6.6435510828698668E-2</v>
+      </c>
+      <c r="D11">
+        <f>(E2*D8-(E2*D9+E1*D10))/(E2*D8)</f>
+        <v>4.5914482007032194E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <f>(0.5*E2*(B8^2)-0.5*(E2*B9^2+E1*B10^2))/(0.5*E2*B8^2)</f>
+        <v>0.3772389717681352</v>
+      </c>
+      <c r="C12">
+        <f>(0.5*E2*(C8^2)-0.5*(E2*C9^2+E1*C10^2))/(0.5*E2*C8^2)</f>
+        <v>0.33223005779328074</v>
+      </c>
+      <c r="D12">
+        <f>(0.5*E2*(D8^2)-0.5*(E2*D9^2+E1*D10^2))/(0.5*E2*D8^2)</f>
+        <v>0.30968670103129553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <f>(B10-B9)/B8</f>
+        <v>0.23621231806285184</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:D13" si="0">(C10-C9)/C8</f>
+        <v>0.52330612546163024</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.51486799159991536</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>